--- a/Figures/Homogenous_vs_Heterogenous.xlsx
+++ b/Figures/Homogenous_vs_Heterogenous.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>dTime</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Homogeneous</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>psia</t>
+  </si>
+  <si>
+    <t>dp/2dp'</t>
   </si>
 </sst>
 </file>
@@ -376,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -392,7 +401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -411,8 +420,11 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -431,8 +443,14 @@
       <c r="H3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1E-4</v>
       </c>
@@ -451,8 +469,16 @@
       <c r="H4">
         <v>3.3118324993858401</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>5000-G4</f>
+        <v>4995.9089211120217</v>
+      </c>
+      <c r="J4">
+        <f>G4/(2*H4)</f>
+        <v>0.61764580315233586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -471,8 +497,16 @@
       <c r="H5">
         <v>8.19578118451874</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" ref="I5:I68" si="0">5000-G5</f>
+        <v>4991.9206861220355</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J68" si="1">G5/(2*H5)</f>
+        <v>0.49289467935194214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -491,8 +525,16 @@
       <c r="H6">
         <v>11.770313879958399</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4988.0183907437658</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.5089757749211633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -511,8 +553,16 @@
       <c r="H7">
         <v>15.2742743846355</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>4984.1942403583826</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.51739805255550875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -531,8 +581,16 @@
       <c r="H8">
         <v>18.674830912978098</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>4980.442954000283</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.52362043037632289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -551,8 +609,16 @@
       <c r="H9">
         <v>21.967346379860899</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4976.7604928442915</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.52895572259501911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -571,8 +637,16 @@
       <c r="H10">
         <v>25.1533470112267</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>4973.1435582652202</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.53385423663086984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -591,8 +665,16 @@
       <c r="H11">
         <v>28.236110128085699</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4969.5893470309202</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.53850641662625376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -611,8 +693,16 @@
       <c r="H12">
         <v>31.222844971515201</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>4966.0954044651344</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.54294532682394381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.0098166088717601E-3</v>
       </c>
@@ -631,8 +721,16 @@
       <c r="H13">
         <v>34.395837014994903</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4962.3253419727225</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.54766305019489403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.13303287061475E-3</v>
       </c>
@@ -651,8 +749,16 @@
       <c r="H14">
         <v>37.822848314561703</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4958.1754703079569</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.55290031760962011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.27128379016047E-3</v>
       </c>
@@ -671,8 +777,16 @@
       <c r="H15">
         <v>41.507269039817899</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>4953.6163093023542</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.55874177909837608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.426403873215E-3</v>
       </c>
@@ -691,8 +805,16 @@
       <c r="H16">
         <v>45.4495127669841</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4948.6180684137589</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.56526383296639526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.6004514690350299E-3</v>
       </c>
@@ -711,8 +833,16 @@
       <c r="H17">
         <v>49.644662766056499</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>4943.1511722442447</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.57255729607478367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.79573608347199E-3</v>
       </c>
@@ -731,8 +861,16 @@
       <c r="H18">
         <v>54.081681659177697</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>4937.1869623705752</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.58072378393549351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.0148490247115002E-3</v>
       </c>
@@ -751,8 +889,16 @@
       <c r="H19">
         <v>58.7415793932024</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>4930.6984048449976</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.5898853577898725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.26069778835862E-3</v>
       </c>
@@ -771,8 +917,16 @@
       <c r="H20">
         <v>63.596632988534701</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>4923.6612138656037</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.60017946349580231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.5365446381379999E-3</v>
       </c>
@@ -791,8 +945,16 @@
       <c r="H21">
         <v>68.608285577388003</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>4916.0547389365956</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.61177203567283778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.8460498941515399E-3</v>
       </c>
@@ -811,8 +973,16 @@
       <c r="H22">
         <v>73.7266506874398</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>4907.8635723029665</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.62485157563742422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3.1933205031021701E-3</v>
       </c>
@@ -831,8 +1001,16 @@
       <c r="H23">
         <v>78.888559953151699</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>4899.0785502536683</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.63964565842160526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3.5829645349814698E-3</v>
       </c>
@@ -851,8 +1029,16 @@
       <c r="H24">
         <v>84.017847980003395</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>4889.6988100873768</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.65641522940979846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.0201523293586601E-3</v>
       </c>
@@ -871,8 +1057,16 @@
       <c r="H25">
         <v>89.024361783086604</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>4879.732725823249</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.67547394762452606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4.5106851026454403E-3</v>
       </c>
@@ -891,8 +1085,16 @@
       <c r="H26">
         <v>93.8057333380074</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4869.2001932518733</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.69718450084932415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.0610719267131302E-3</v>
       </c>
@@ -911,8 +1113,16 @@
       <c r="H27">
         <v>98.248537709345797</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>4858.1331575011018</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.72197940959992046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.6786161003217301E-3</v>
       </c>
@@ -931,8 +1141,16 @@
       <c r="H28">
         <v>102.232236417449</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>4846.577631418073</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.75036198932130993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6.3715120594572301E-3</v>
       </c>
@@ -951,8 +1169,16 @@
       <c r="H29">
         <v>105.633656477773</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>4834.5933151412764</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.78292605961968276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.1489541125185196E-3</v>
       </c>
@@ -971,8 +1197,16 @@
       <c r="H30">
         <v>108.333184531071</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>4822.2545831456546</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.8203645892241167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8.0212584432036906E-3</v>
       </c>
@@ -991,8 +1225,16 @@
       <c r="H31">
         <v>110.222843292401</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>4809.6486775634939</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.86348399637785989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.9999999999999802E-3</v>
       </c>
@@ -1011,8 +1253,16 @@
       <c r="H32">
         <v>111.213445449814</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>4796.8748355584048</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.9132221541201011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.00981660887176E-2</v>
       </c>
@@ -1031,8 +1281,16 @@
       <c r="H33">
         <v>111.24460940220099</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>4784.0408354001693</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.97065001962943753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.13303287061474E-2</v>
       </c>
@@ -1051,8 +1309,16 @@
       <c r="H34">
         <v>110.28990939384001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>4771.2598176298598</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1.0369950597806719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.27128379016047E-2</v>
       </c>
@@ -1071,8 +1337,16 @@
       <c r="H35">
         <v>108.365010259999</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>4758.6456452723769</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>1.1136175512213033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.426403873215E-2</v>
       </c>
@@ -1091,8 +1365,16 @@
       <c r="H36">
         <v>105.527210825453</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>4746.3078519071769</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>1.2020224267674515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.6004514690350202E-2</v>
       </c>
@@ -1111,8 +1393,16 @@
       <c r="H37">
         <v>101.87727609476499</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>4734.3471070171836</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>1.3037887503770171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.7957360834719799E-2</v>
       </c>
@@ -1131,8 +1421,16 @@
       <c r="H38">
         <v>97.551549321705494</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>4722.849742182113</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>1.4205323223719435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.0148490247115E-2</v>
       </c>
@@ -1151,8 +1449,16 @@
       <c r="H39">
         <v>92.715435280070395</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>4711.8850326905213</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1.5537594492176787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.26069778835861E-2</v>
       </c>
@@ -1171,8 +1477,16 @@
       <c r="H40">
         <v>87.550209055748596</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>4701.5012242654793</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>1.7047290860519162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.536544638138E-2</v>
       </c>
@@ -1191,8 +1505,16 @@
       <c r="H41">
         <v>82.240603145058301</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>4691.7258520644928</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>1.8742211033628022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.84604989415153E-2</v>
       </c>
@@ -1211,8 +1533,16 @@
       <c r="H42">
         <v>76.961978106770999</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>4682.5646255814136</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>2.0622870034486449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.1933205031021698E-2</v>
       </c>
@@ -1231,8 +1561,16 @@
       <c r="H43">
         <v>71.867893854282897</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>4674.0047017128945</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>2.2680176140133099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.5829645349814601E-2</v>
       </c>
@@ -1251,8 +1589,16 @@
       <c r="H44">
         <v>67.083403003882594</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>4666.0164314760386</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>2.4893159378380894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.0201523293586498E-2</v>
       </c>
@@ -1271,8 +1617,16 @@
       <c r="H45">
         <v>62.698050040445203</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>4658.5581773384893</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>2.7229062342549253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4.51068510264543E-2</v>
       </c>
@@ -1291,8 +1645,16 @@
       <c r="H46">
         <v>58.767348238350898</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>4651.5796719377458</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>2.9644040313774007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.0610719267131198E-2</v>
       </c>
@@ -1311,8 +1673,16 @@
       <c r="H47">
         <v>55.312827656452598</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>4645.0264953376482</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>3.2087810341851331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.6786161003217199E-2</v>
       </c>
@@ -1331,8 +1701,16 @@
       <c r="H48">
         <v>52.329197152530298</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>4638.8434226964373</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>3.4508132835561742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.3715120594572197E-2</v>
       </c>
@@ -1351,8 +1729,16 @@
       <c r="H49">
         <v>49.789094410860201</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>4632.9772524084719</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>3.6857744846979132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7.1489541125185102E-2</v>
       </c>
@@ -1371,8 +1757,16 @@
       <c r="H50">
         <v>47.6513483893198</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>4627.3790600380253</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>3.9098677430657069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8.0212584432036799E-2</v>
       </c>
@@ -1391,8 +1785,16 @@
       <c r="H51">
         <v>45.866678483516999</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>4622.0051239622398</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>4.1205826161316557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8.9999999999999705E-2</v>
       </c>
@@ -1411,8 +1813,16 @@
       <c r="H52">
         <v>44.3835795198912</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>4616.8178670238949</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>4.3167105618912043</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.100981660887176</v>
       </c>
@@ -1431,8 +1841,16 @@
       <c r="H53">
         <v>43.152386667777698</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>4611.7854271046181</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>4.4981819416406177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.113303287061474</v>
       </c>
@@ -1451,8 +1869,16 @@
       <c r="H54">
         <v>42.127802042357303</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>4606.8816627970609</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>4.6657826677935761</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.12712837901604701</v>
       </c>
@@ -1471,8 +1897,16 @@
       <c r="H55">
         <v>41.2707072346847</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>4602.0851422062851</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>4.8207903917297017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.142640387321499</v>
       </c>
@@ -1491,8 +1925,16 @@
       <c r="H56">
         <v>40.5481984207849</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>4597.3787312714703</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>4.9647245057643232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.16004514690350199</v>
       </c>
@@ -1511,8 +1953,16 @@
       <c r="H57">
         <v>39.933791290250802</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>4592.7485744831383</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>5.0990829114725944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.17957360834719799</v>
       </c>
@@ -1531,8 +1981,16 @@
       <c r="H58">
         <v>39.406336318209704</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>4588.1836360183033</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>5.2252556626457594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.201484902471149</v>
       </c>
@@ -1551,8 +2009,16 @@
       <c r="H59">
         <v>38.949520917457697</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>4583.6749302255557</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>5.3444183646921513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.22606977883586099</v>
       </c>
@@ -1571,8 +2037,16 @@
       <c r="H60">
         <v>38.550659552053503</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>4579.215177393924</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>5.4575567252994217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.25365446381379902</v>
       </c>
@@ -1591,8 +2065,16 @@
       <c r="H61">
         <v>38.200105165469701</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>4574.7983128245924</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>5.5654517878102778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.284604989415153</v>
       </c>
@@ -1611,8 +2093,16 @@
       <c r="H62">
         <v>37.890344089243399</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>4570.4192781234424</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>5.6687360883390694</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.319332050310216</v>
       </c>
@@ -1631,8 +2121,16 @@
       <c r="H63">
         <v>37.615564821852303</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>4566.073738677761</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>5.7679083562525006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.35829645349814598</v>
       </c>
@@ -1651,8 +2149,16 @@
       <c r="H64">
         <v>37.371108835718601</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>4561.7579742411071</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>5.8633800201832589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.402015232935865</v>
       </c>
@@ -1671,8 +2177,16 @@
       <c r="H65">
         <v>37.153221933786199</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>4557.4687228663834</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>5.9554899158179095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.45106851026454298</v>
       </c>
@@ -1691,8 +2205,16 @@
       <c r="H66">
         <v>36.9587629979657</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>4553.2031287429636</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>6.0445322707584772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.50610719267131099</v>
       </c>
@@ -1711,8 +2233,16 @@
       <c r="H67">
         <v>36.785082918644797</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>4548.9586531929208</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>6.1307643074316038</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.56786161003217095</v>
       </c>
@@ -1731,8 +2261,16 @@
       <c r="H68">
         <v>36.629881094044499</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>4544.733050385662</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>6.2144202494880325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.63715120594572106</v>
       </c>
@@ -1751,8 +2289,16 @@
       <c r="H69">
         <v>36.491153751122802</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" ref="I69:I113" si="2">5000-G69</f>
+        <v>4540.5243113763918</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J113" si="3">G69/(2*H69)</f>
+        <v>6.2957133632623261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.71489541125184897</v>
       </c>
@@ -1771,8 +2317,16 @@
       <c r="H70">
         <v>36.367122427569797</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>4536.3306517203127</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>6.3748424033706437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.80212584432036604</v>
       </c>
@@ -1791,8 +2345,16 @@
       <c r="H71">
         <v>36.2562136111843</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>4532.1504719787108</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>6.4519910026810825</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.89999999999999503</v>
       </c>
@@ -1811,8 +2373,16 @@
       <c r="H72">
         <v>36.157018573940299</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>4527.9823500213606</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>6.5273309110563611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.0098166088717599</v>
       </c>
@@ -1831,8 +2401,16 @@
       <c r="H73">
         <v>36.068284877486299</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>4523.8250107811637</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>6.6010206866817613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.1330328706147399</v>
       </c>
@@ -1851,8 +2429,16 @@
       <c r="H74">
         <v>35.988889386109399</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" si="2"/>
+        <v>4519.6773205124837</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>6.6732078661047227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.2712837901604701</v>
       </c>
@@ -1871,8 +2457,16 @@
       <c r="H75">
         <v>35.9178335222607</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="2"/>
+        <v>4515.5382627597783</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>6.7440278231142265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.42640387321499</v>
       </c>
@@ -1891,8 +2485,16 @@
       <c r="H76">
         <v>35.854222568337697</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="2"/>
+        <v>4511.4069337083838</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>6.813605641014302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.60045146903502</v>
       </c>
@@ -1911,8 +2513,16 @@
       <c r="H77">
         <v>35.7972619649723</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="2"/>
+        <v>4507.282522919103</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>6.8820553589129547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.79573608347198</v>
       </c>
@@ -1931,8 +2541,16 @@
       <c r="H78">
         <v>35.746240522199898</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="2"/>
+        <v>4503.1643095313302</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>6.9494817246601697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.0148490247114901</v>
       </c>
@@ -1951,8 +2569,16 @@
       <c r="H79">
         <v>35.700527218097299</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="2"/>
+        <v>4499.0516468634041</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>7.0159797651763443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.2606977883586001</v>
       </c>
@@ -1971,8 +2597,16 @@
       <c r="H80">
         <v>35.659557463242301</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="2"/>
+        <v>4494.9439593528878</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>7.0816364051590002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.5365446381379901</v>
       </c>
@@ -1991,8 +2625,16 @@
       <c r="H81">
         <v>35.622830363201501</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="2"/>
+        <v>4490.8407303196409</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>7.1465302516545988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2.8460498941515202</v>
       </c>
@@ -2011,8 +2653,16 @@
       <c r="H82">
         <v>35.589897662162301</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="2"/>
+        <v>4486.7414995364306</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>7.2107330194608021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3.1933205031021599</v>
       </c>
@@ -2031,8 +2681,16 @@
       <c r="H83">
         <v>35.560361425289202</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" si="2"/>
+        <v>4482.6458535378333</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>7.2743094519596765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3.5829645349814498</v>
       </c>
@@ -2051,8 +2709,16 @@
       <c r="H84">
         <v>35.533865254936501</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="2"/>
+        <v>4478.5534237244956</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>7.3373185345079026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4.0201523293586403</v>
       </c>
@@ -2071,8 +2737,16 @@
       <c r="H85">
         <v>35.510092481666099</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>4474.4638786945852</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>7.3998134696037461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4.5106851026454198</v>
       </c>
@@ -2091,8 +2765,16 @@
       <c r="H86">
         <v>35.488759176941301</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" si="2"/>
+        <v>4470.3769227645844</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>7.4618427005971055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5.0610719267131099</v>
       </c>
@@ -2111,8 +2793,16 @@
       <c r="H87">
         <v>35.469612750462801</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="2"/>
+        <v>4466.2922899096175</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>7.5234499153563394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5.6786161003217002</v>
       </c>
@@ -2131,8 +2821,16 @@
       <c r="H88">
         <v>35.452426514904403</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" si="2"/>
+        <v>4462.2097426072351</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>7.5846748764386405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6.3715120594572001</v>
       </c>
@@ -2151,8 +2849,16 @@
       <c r="H89">
         <v>35.436998536023602</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>4458.1290670292492</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>7.6455534519932646</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>7.1489541125184797</v>
       </c>
@@ -2171,8 +2877,16 @@
       <c r="H90">
         <v>35.423147389596998</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="2"/>
+        <v>4454.0500721502849</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>7.7061182882079038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.0212584432036493</v>
       </c>
@@ -2191,8 +2905,16 @@
       <c r="H91">
         <v>35.410711319111201</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="2"/>
+        <v>4449.9725859166274</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>7.7663988323572948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8.9999999999999396</v>
       </c>
@@ -2211,8 +2933,16 @@
       <c r="H92">
         <v>35.399544852067201</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>4445.8964545487152</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>7.8264218899826812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>10.098166088717599</v>
       </c>
@@ -2231,8 +2961,16 @@
       <c r="H93">
         <v>35.389518159596797</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="2"/>
+        <v>4441.8215394891131</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>7.886211645968995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>11.3303287061474</v>
       </c>
@@ -2251,8 +2989,16 @@
       <c r="H94">
         <v>35.380514393405399</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>4437.747716852462</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>7.9457901162162958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>12.712837901604701</v>
       </c>
@@ -2271,8 +3017,16 @@
       <c r="H95">
         <v>35.372429180016603</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="2"/>
+        <v>4433.674874986641</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>8.0051771696429075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14.264038732149899</v>
       </c>
@@ -2291,8 +3045,16 @@
       <c r="H96">
         <v>35.365168556194398</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="2"/>
+        <v>4429.6029140391729</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>8.0643908858299351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>16.004514690350199</v>
       </c>
@@ -2311,8 +3073,16 @@
       <c r="H97">
         <v>35.358648534312998</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="2"/>
+        <v>4425.5317439937699</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>8.1234475838174411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>17.957360834719701</v>
       </c>
@@ -2331,8 +3101,16 @@
       <c r="H98">
         <v>35.352793424653001</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="2"/>
+        <v>4421.4612843368195</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>8.182362122192874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>20.1484902471149</v>
       </c>
@@ -2351,8 +3129,16 @@
       <c r="H99">
         <v>35.3475355950332</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="2"/>
+        <v>4417.3914624802392</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>8.2411479005855384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>22.606977883586001</v>
       </c>
@@ -2371,8 +3157,16 @@
       <c r="H100">
         <v>35.342814069605403</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="2"/>
+        <v>4413.3222134832995</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>8.2998171192774262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>25.3654463813799</v>
       </c>
@@ -2391,8 +3185,16 @@
       <c r="H101">
         <v>35.338574301272303</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="2"/>
+        <v>4409.2534787981258</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>8.3583807904299814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>28.460498941515201</v>
       </c>
@@ -2411,8 +3213,16 @@
       <c r="H102">
         <v>35.334767139815703</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="2"/>
+        <v>4405.1852060439232</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="3"/>
+        <v>8.4168489295891167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>31.933205031021501</v>
       </c>
@@ -2431,8 +3241,16 @@
       <c r="H103">
         <v>35.331348606891297</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" si="2"/>
+        <v>4401.1173479900699</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="3"/>
+        <v>8.4752305760148552</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>35.829645349814399</v>
       </c>
@@ -2451,8 +3269,16 @@
       <c r="H104">
         <v>35.328279041228598</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="2"/>
+        <v>4397.0498623821632</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="3"/>
+        <v>8.5335339561005181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>40.201523293586298</v>
       </c>
@@ -2471,8 +3297,16 @@
       <c r="H105">
         <v>35.325522968400698</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="2"/>
+        <v>4392.9827111219229</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="3"/>
+        <v>8.5917664887943008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>45.106851026454102</v>
       </c>
@@ -2491,8 +3325,16 @@
       <c r="H106">
         <v>35.323048406389397</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="2"/>
+        <v>4388.9158601232375</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="3"/>
+        <v>8.6499349213335055</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>50.610719267131003</v>
       </c>
@@ -2511,8 +3353,16 @@
       <c r="H107">
         <v>35.3208267202778</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="2"/>
+        <v>4384.8492786519582</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="3"/>
+        <v>8.7080453441776609</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>56.786161003216897</v>
       </c>
@@ -2531,8 +3381,16 @@
       <c r="H108">
         <v>35.318832095763199</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="2"/>
+        <v>4380.7829392154026</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="3"/>
+        <v>8.7661032944925363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>63.7151205945719</v>
       </c>
@@ -2551,8 +3409,16 @@
       <c r="H109">
         <v>35.317041442224799</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="2"/>
+        <v>4376.7168170233908</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="3"/>
+        <v>8.8241137638360634</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>71.489541125184701</v>
       </c>
@@ -2571,8 +3437,16 @@
       <c r="H110">
         <v>35.315433916438799</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="2"/>
+        <v>4372.650889900051</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="3"/>
+        <v>8.8820812960183897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>80.212584432036394</v>
       </c>
@@ -2591,8 +3465,16 @@
       <c r="H111">
         <v>35.313990887446501</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="2"/>
+        <v>4368.5851378545303</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="3"/>
+        <v>8.9400099829827901</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>89.999999999999204</v>
       </c>
@@ -2611,8 +3493,16 @@
       <c r="H112">
         <v>35.312693732056701</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="2"/>
+        <v>4364.5195430008953</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="3"/>
+        <v>8.9979040089799032</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>99.999999999999204</v>
       </c>
@@ -2630,6 +3520,10 @@
       </c>
       <c r="H113">
         <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="2"/>
+        <v>4360.7990386285546</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +3537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2655,7 +3549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
